--- a/data/trans_bre/P9_1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P9_1_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 15,19</t>
+          <t>2,53; 15,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 20,51</t>
+          <t>7,22; 20,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 7,86</t>
+          <t>-1,18; 7,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,58; 174,77</t>
+          <t>17,4; 176,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,63; 212,61</t>
+          <t>44,42; 209,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 117,22</t>
+          <t>-9,88; 103,66</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 12,62</t>
+          <t>4,04; 12,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 12,84</t>
+          <t>3,26; 12,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 12,78</t>
+          <t>3,78; 12,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 10,75</t>
+          <t>0,89; 10,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,18; 169,46</t>
+          <t>35,25; 174,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,03; 146,29</t>
+          <t>23,26; 149,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,62; 188,9</t>
+          <t>37,29; 180,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,84; 68,93</t>
+          <t>4,47; 68,09</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 12,84</t>
+          <t>2,85; 11,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 13,26</t>
+          <t>1,71; 13,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 8,62</t>
+          <t>-1,02; 8,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 8,97</t>
+          <t>-1,0; 8,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,5; 318,08</t>
+          <t>34,52; 267,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,22; 134,82</t>
+          <t>10,4; 142,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 129,76</t>
+          <t>-10,56; 132,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 75,46</t>
+          <t>-6,07; 73,36</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 16,17</t>
+          <t>6,41; 15,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,83; 20,34</t>
+          <t>11,24; 20,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,69; 22,12</t>
+          <t>8,5; 21,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 11,05</t>
+          <t>-2,11; 10,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,81; 482,97</t>
+          <t>90,98; 454,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,08; 159,11</t>
+          <t>65,49; 154,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,52; 157,46</t>
+          <t>39,93; 154,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 67,06</t>
+          <t>-8,6; 62,45</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 10,4</t>
+          <t>-1,39; 11,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,15; 19,72</t>
+          <t>5,28; 20,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 10,53</t>
+          <t>-0,8; 10,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,55</t>
+          <t>0,79; 9,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 191,83</t>
+          <t>-15,36; 201,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,4; 209,62</t>
+          <t>30,89; 223,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 189,45</t>
+          <t>-10,07; 197,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 180,94</t>
+          <t>9,57; 178,28</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 13,15</t>
+          <t>1,29; 13,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 9,87</t>
+          <t>-3,27; 9,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 15,04</t>
+          <t>0,85; 15,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 8,73</t>
+          <t>-0,48; 9,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,8; 181,71</t>
+          <t>10,11; 173,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 100,63</t>
+          <t>-18,7; 87,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,89; 114,04</t>
+          <t>2,37; 113,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 85,85</t>
+          <t>-3,85; 86,76</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 7,77</t>
+          <t>1,04; 7,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,83; 10,62</t>
+          <t>2,92; 10,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,57; 14,07</t>
+          <t>6,09; 14,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 10,67</t>
+          <t>-3,16; 10,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,68; 97,12</t>
+          <t>8,67; 100,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,68; 139,15</t>
+          <t>26,06; 148,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>42,65; 155,75</t>
+          <t>46,73; 154,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 79,13</t>
+          <t>-16,7; 73,45</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,67; 11,13</t>
+          <t>3,36; 10,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,72; 11,03</t>
+          <t>3,61; 11,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,51; 10,94</t>
+          <t>4,43; 10,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,91; 13,18</t>
+          <t>6,04; 13,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>28,64; 119,97</t>
+          <t>25,17; 114,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,04; 114,1</t>
+          <t>25,69; 116,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>55,5; 197,64</t>
+          <t>53,68; 196,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>44,33; 144,64</t>
+          <t>46,96; 146,14</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,0</t>
+          <t>5,58; 8,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,61</t>
+          <t>7,1; 10,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,77</t>
+          <t>7,24; 10,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,01; 8,02</t>
+          <t>3,93; 7,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>58,13; 109,02</t>
+          <t>57,56; 108,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>53,85; 94,54</t>
+          <t>55,42; 95,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>64,83; 110,52</t>
+          <t>62,59; 110,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>26,86; 60,81</t>
+          <t>26,42; 59,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P9_1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P9_1_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 15,1</t>
+          <t>2,71; 15,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,22; 20,7</t>
+          <t>7,47; 20,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,4; 176,02</t>
+          <t>16,87; 178,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,42; 209,31</t>
+          <t>43,98; 217,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 12,94</t>
+          <t>3,87; 12,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 12,94</t>
+          <t>2,79; 12,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,78; 12,25</t>
+          <t>3,61; 12,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,25; 174,7</t>
+          <t>30,69; 160,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,26; 149,89</t>
+          <t>17,28; 140,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,29; 180,24</t>
+          <t>33,01; 176,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 11,99</t>
+          <t>3,35; 12,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 13,36</t>
+          <t>1,27; 12,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 8,61</t>
+          <t>-1,17; 9,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,52; 267,83</t>
+          <t>38,84; 277,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,4; 142,58</t>
+          <t>5,32; 133,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 132,23</t>
+          <t>-13,73; 135,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,41; 15,4</t>
+          <t>6,6; 15,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,24; 20,22</t>
+          <t>11,07; 20,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,5; 21,93</t>
+          <t>9,14; 21,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,98; 454,36</t>
+          <t>91,17; 478,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,49; 154,87</t>
+          <t>62,21; 158,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,93; 154,1</t>
+          <t>46,63; 150,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 11,0</t>
+          <t>-1,09; 10,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,28; 20,38</t>
+          <t>4,5; 19,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 10,95</t>
+          <t>-0,43; 11,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 201,52</t>
+          <t>-15,13; 185,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,89; 223,08</t>
+          <t>24,84; 206,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 197,4</t>
+          <t>-5,52; 206,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,29; 13,07</t>
+          <t>2,04; 13,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 9,34</t>
+          <t>-2,34; 9,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,85; 15,12</t>
+          <t>0,4; 14,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,11; 173,26</t>
+          <t>16,71; 191,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 87,13</t>
+          <t>-16,47; 90,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 113,58</t>
+          <t>2,28; 108,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,04; 7,9</t>
+          <t>0,96; 7,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 10,79</t>
+          <t>3,0; 10,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,09; 14,0</t>
+          <t>5,57; 13,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,67; 100,91</t>
+          <t>6,63; 100,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,06; 148,6</t>
+          <t>27,72; 138,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>46,73; 154,08</t>
+          <t>41,73; 148,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,36; 10,69</t>
+          <t>3,72; 11,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,61; 11,22</t>
+          <t>3,82; 11,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,43; 10,73</t>
+          <t>4,69; 11,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,17; 114,7</t>
+          <t>29,38; 122,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,69; 116,43</t>
+          <t>28,28; 114,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>53,68; 196,68</t>
+          <t>56,38; 194,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,58; 8,91</t>
+          <t>5,68; 8,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,1; 10,77</t>
+          <t>7,02; 10,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,24; 10,76</t>
+          <t>7,07; 10,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>57,56; 108,24</t>
+          <t>57,25; 104,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>55,42; 95,49</t>
+          <t>55,03; 94,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>62,59; 110,42</t>
+          <t>62,31; 108,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
